--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H2">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I2">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J2">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0282908737966</v>
+        <v>25.94532566666667</v>
       </c>
       <c r="N2">
-        <v>10.0282908737966</v>
+        <v>77.835977</v>
       </c>
       <c r="O2">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="P2">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="Q2">
-        <v>14.44911336188528</v>
+        <v>81.77006673083667</v>
       </c>
       <c r="R2">
-        <v>14.44911336188528</v>
+        <v>735.9306005775301</v>
       </c>
       <c r="S2">
-        <v>9.120938965518743E-05</v>
+        <v>0.0003398415222888862</v>
       </c>
       <c r="T2">
-        <v>9.120938965518743E-05</v>
+        <v>0.0003398415222888862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H3">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I3">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J3">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4999893440293</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N3">
-        <v>18.4999893440293</v>
+        <v>55.542812</v>
       </c>
       <c r="O3">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210787</v>
       </c>
       <c r="P3">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210786</v>
       </c>
       <c r="Q3">
-        <v>26.65543377127323</v>
+        <v>58.35013086118668</v>
       </c>
       <c r="R3">
-        <v>26.65543377127323</v>
+        <v>525.1511777506801</v>
       </c>
       <c r="S3">
-        <v>0.0001682612478967279</v>
+        <v>0.0002425068009653867</v>
       </c>
       <c r="T3">
-        <v>0.0001682612478967279</v>
+        <v>0.0002425068009653867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H4">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I4">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J4">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.27968783304893</v>
+        <v>3.571174000000001</v>
       </c>
       <c r="N4">
-        <v>3.27968783304893</v>
+        <v>10.713522</v>
       </c>
       <c r="O4">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827505</v>
       </c>
       <c r="P4">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827504</v>
       </c>
       <c r="Q4">
-        <v>4.725489306970918</v>
+        <v>11.25501911362</v>
       </c>
       <c r="R4">
-        <v>4.725489306970918</v>
+        <v>101.29517202258</v>
       </c>
       <c r="S4">
-        <v>2.982944245201044E-05</v>
+        <v>4.677656484681209E-05</v>
       </c>
       <c r="T4">
-        <v>2.982944245201044E-05</v>
+        <v>4.677656484681207E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H5">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I5">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J5">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0282908737966</v>
+        <v>25.94532566666667</v>
       </c>
       <c r="N5">
-        <v>10.0282908737966</v>
+        <v>77.835977</v>
       </c>
       <c r="O5">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="P5">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="Q5">
-        <v>49641.03937060638</v>
+        <v>128993.7869043079</v>
       </c>
       <c r="R5">
-        <v>49641.03937060638</v>
+        <v>1160944.082138771</v>
       </c>
       <c r="S5">
-        <v>0.313356867611382</v>
+        <v>0.5361062630860792</v>
       </c>
       <c r="T5">
-        <v>0.313356867611382</v>
+        <v>0.5361062630860792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H6">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I6">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J6">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.4999893440293</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N6">
-        <v>18.4999893440293</v>
+        <v>55.542812</v>
       </c>
       <c r="O6">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210787</v>
       </c>
       <c r="P6">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210786</v>
       </c>
       <c r="Q6">
-        <v>91576.79119403887</v>
+        <v>92048.40655104816</v>
       </c>
       <c r="R6">
-        <v>91576.79119403887</v>
+        <v>828435.6589594334</v>
       </c>
       <c r="S6">
-        <v>0.5780744480434332</v>
+        <v>0.3825589467787196</v>
       </c>
       <c r="T6">
-        <v>0.5780744480434332</v>
+        <v>0.3825589467787195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H7">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I7">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J7">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.27968783304893</v>
+        <v>3.571174000000001</v>
       </c>
       <c r="N7">
-        <v>3.27968783304893</v>
+        <v>10.713522</v>
       </c>
       <c r="O7">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827505</v>
       </c>
       <c r="P7">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827504</v>
       </c>
       <c r="Q7">
-        <v>16234.78166843835</v>
+        <v>17755.00002861934</v>
       </c>
       <c r="R7">
-        <v>16234.78166843835</v>
+        <v>159795.0002575741</v>
       </c>
       <c r="S7">
-        <v>0.1024813419396054</v>
+        <v>0.07379089291717247</v>
       </c>
       <c r="T7">
-        <v>0.1024813419396054</v>
+        <v>0.07379089291717245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H8">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I8">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J8">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0282908737966</v>
+        <v>25.94532566666667</v>
       </c>
       <c r="N8">
-        <v>10.0282908737966</v>
+        <v>77.835977</v>
       </c>
       <c r="O8">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="P8">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="Q8">
-        <v>289.5836421410983</v>
+        <v>898.7426909041128</v>
       </c>
       <c r="R8">
-        <v>289.5836421410983</v>
+        <v>8088.684218137016</v>
       </c>
       <c r="S8">
-        <v>0.001827983945609347</v>
+        <v>0.003735230952278061</v>
       </c>
       <c r="T8">
-        <v>0.001827983945609347</v>
+        <v>0.003735230952278061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H9">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I9">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J9">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4999893440293</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N9">
-        <v>18.4999893440293</v>
+        <v>55.542812</v>
       </c>
       <c r="O9">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210787</v>
       </c>
       <c r="P9">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210786</v>
       </c>
       <c r="Q9">
-        <v>534.2180797541326</v>
+        <v>641.3319166952996</v>
       </c>
       <c r="R9">
-        <v>534.2180797541326</v>
+        <v>5771.987250257696</v>
       </c>
       <c r="S9">
-        <v>0.003372228023739658</v>
+        <v>0.002665415641393713</v>
       </c>
       <c r="T9">
-        <v>0.003372228023739658</v>
+        <v>0.002665415641393713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H10">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I10">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J10">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.27968783304893</v>
+        <v>3.571174000000001</v>
       </c>
       <c r="N10">
-        <v>3.27968783304893</v>
+        <v>10.713522</v>
       </c>
       <c r="O10">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827505</v>
       </c>
       <c r="P10">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827504</v>
       </c>
       <c r="Q10">
-        <v>94.70646192182029</v>
+        <v>123.7050007265973</v>
       </c>
       <c r="R10">
-        <v>94.70646192182029</v>
+        <v>1113.345006539376</v>
       </c>
       <c r="S10">
-        <v>0.0005978303562263975</v>
+        <v>0.0005141257362557672</v>
       </c>
       <c r="T10">
-        <v>0.0005978303562263975</v>
+        <v>0.0005141257362557671</v>
       </c>
     </row>
   </sheetData>
